--- a/GK_Questions_OptionA_Table.xlsx
+++ b/GK_Questions_OptionA_Table.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434117C5-54B6-4E37-88F7-6BC73EABE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D688B-9BBA-4AA1-ABD8-15EDD2126692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GK Questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
   <si>
     <t>Question No.</t>
   </si>
@@ -479,6 +490,9 @@
   </si>
   <si>
     <t>Carrot</t>
+  </si>
+  <si>
+    <t>Correct</t>
   </si>
 </sst>
 </file>
@@ -818,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,9 +846,10 @@
     <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,8 +868,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -873,8 +891,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -893,8 +914,11 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -913,8 +937,11 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -933,8 +960,11 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -953,8 +983,11 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -973,8 +1006,11 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -993,8 +1029,11 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1013,8 +1052,11 @@
       <c r="F9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1033,8 +1075,11 @@
       <c r="F10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1053,8 +1098,11 @@
       <c r="F11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1073,8 +1121,11 @@
       <c r="F12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1093,8 +1144,11 @@
       <c r="F13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1113,8 +1167,11 @@
       <c r="F14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1133,8 +1190,11 @@
       <c r="F15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1153,8 +1213,11 @@
       <c r="F16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1173,8 +1236,11 @@
       <c r="F17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1193,8 +1259,11 @@
       <c r="F18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1213,8 +1282,11 @@
       <c r="F19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1233,8 +1305,11 @@
       <c r="F20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1253,8 +1328,11 @@
       <c r="F21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1273,8 +1351,11 @@
       <c r="F22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1293,8 +1374,11 @@
       <c r="F23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1313,8 +1397,11 @@
       <c r="F24" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1333,8 +1420,11 @@
       <c r="F25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1353,8 +1443,11 @@
       <c r="F26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1373,8 +1466,11 @@
       <c r="F27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1393,8 +1489,11 @@
       <c r="F28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1413,8 +1512,11 @@
       <c r="F29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1433,8 +1535,11 @@
       <c r="F30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1453,8 +1558,12 @@
       <c r="F31" t="s">
         <v>152</v>
       </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GK_Questions_OptionA_Table.xlsx
+++ b/GK_Questions_OptionA_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D688B-9BBA-4AA1-ABD8-15EDD2126692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B950F5B8-246D-458A-9401-63A17377E6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,25 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="154">
-  <si>
-    <t>Question No.</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Option A</t>
-  </si>
-  <si>
-    <t>Option B</t>
-  </si>
-  <si>
-    <t>Option C</t>
-  </si>
-  <si>
-    <t>Option D</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="153">
   <si>
     <t>Which planet is known as the 'Red Planet'?</t>
   </si>
@@ -492,7 +474,22 @@
     <t>Carrot</t>
   </si>
   <si>
-    <t>Correct</t>
+    <t>question_text</t>
+  </si>
+  <si>
+    <t>option_a</t>
+  </si>
+  <si>
+    <t>option_b</t>
+  </si>
+  <si>
+    <t>option_c</t>
+  </si>
+  <si>
+    <t>correct_option</t>
+  </si>
+  <si>
+    <t>option_d</t>
   </si>
 </sst>
 </file>
@@ -508,12 +505,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -528,8 +531,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,734 +841,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="63.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
         <v>135</v>
       </c>
-      <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B30" t="s">
         <v>138</v>
       </c>
-      <c r="F28" t="s">
+      <c r="C30" t="s">
         <v>139</v>
       </c>
-      <c r="G28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D30" t="s">
         <v>140</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>142</v>
       </c>
-      <c r="G29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>144</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>145</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>146</v>
       </c>
-      <c r="F30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" t="s">
-        <v>151</v>
-      </c>
       <c r="F31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/GK_Questions_OptionA_Table.xlsx
+++ b/GK_Questions_OptionA_Table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B950F5B8-246D-458A-9401-63A17377E6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96397E0A-791A-468A-8B5B-FCEB2BF2F151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GK Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -844,7 +844,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GK_Questions_OptionA_Table.xlsx
+++ b/GK_Questions_OptionA_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96397E0A-791A-468A-8B5B-FCEB2BF2F151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E07757-9D0D-4CEF-819D-3A347CF24462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,7 +844,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GK_Questions_OptionA_Table.xlsx
+++ b/GK_Questions_OptionA_Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\11.Portfolio\CBT\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E07757-9D0D-4CEF-819D-3A347CF24462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89267669-1CEA-41DC-A181-8E13F8C3BD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="229">
   <si>
     <t>Which planet is known as the 'Red Planet'?</t>
   </si>
@@ -490,19 +491,269 @@
   </si>
   <si>
     <t>option_d</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question_type </t>
+  </si>
+  <si>
+    <t>correct_answer</t>
+  </si>
+  <si>
+    <t>question_image_url</t>
+  </si>
+  <si>
+    <t>The error matrix resulting from randomly selected test pixels for a classified image is given below. The Producer’s accuracy of class 1 is ____________ % (rounded off to 1 decimal place).</t>
+  </si>
+  <si>
+    <t>https://ibb.co/M5Dm0XmY</t>
+  </si>
+  <si>
+    <t>The brightness values of four pixels in the input image are shown in the table below. The image is rectified using nearest neighbor intensity interpolation, and the 
+pixel at location (5, 4) in the output image is to be filled with the value from coordinate (5.3, 3.7) in the input image. The brightness value of the pixel at location (5, 4) in the rectified output image is ______ (Answer in integer).</t>
+  </si>
+  <si>
+    <t>https://ibb.co/zTvfN78B</t>
+  </si>
+  <si>
+    <t>The hue, intensity and saturation values for a pixel are 𝐻=0.5 rad, 𝑆=0.5 and � �=0.3, respectively. If the pixel is converted to RGB color model, then the value of 
+the green pixel would be _____ (rounded off to 2 decimal places).</t>
+  </si>
+  <si>
+    <t>It is sensitive to canopy background variations</t>
+  </si>
+  <si>
+    <t>It reduces additive noise</t>
+  </si>
+  <si>
+    <t>It reduces many forms of multiplicative noise</t>
+  </si>
+  <si>
+    <t>It is functionally equivalent to a simple ratio of red to near infra-red reflectance</t>
+  </si>
+  <si>
+    <t>Which of the following statements is/are correct regarding across-track scanning sensor of an airborne optical imaging system?</t>
+  </si>
+  <si>
+    <t>The relief displacement will be along the direction of the flight line</t>
+  </si>
+  <si>
+    <t>There is no relief displacement along the direction of the flight line</t>
+  </si>
+  <si>
+    <t>The greater is the distance of the ground object from nadir, the lesser is the image scale compression</t>
+  </si>
+  <si>
+    <t>Linear features have sigmoidal distortion</t>
+  </si>
+  <si>
+    <t>The histogram of a red band in a 3-bit satellite image is shown below. Which of the following statements is/are correct?</t>
+  </si>
+  <si>
+    <t>There are more darker pixels in the image</t>
+  </si>
+  <si>
+    <t>There are more brighter pixels in the image</t>
+  </si>
+  <si>
+    <t>The mean digital number of the image is 1250</t>
+  </si>
+  <si>
+    <t>It may be predicted that approximately 40% of area in the image is covered by material with low spectral albedo in red band</t>
+  </si>
+  <si>
+    <t>https://ibb.co/nq1qg1Kk</t>
+  </si>
+  <si>
+    <t>For the correlation matrix of a 4-band satellite image as shown below, which of the following statements is/are correct?</t>
+  </si>
+  <si>
+    <t>Band 3 provides some unique information not found in other bands</t>
+  </si>
+  <si>
+    <t>There is high redundancy in band 2 and 4</t>
+  </si>
+  <si>
+    <t>The standard deviation of all the bands is equal</t>
+  </si>
+  <si>
+    <t>Image cannot be classified using bands 1 and 3 only</t>
+  </si>
+  <si>
+    <t>Consider an imaging system with 128 128  pixels that produces a noiseless, distortion-free digital image. It is used to digitize checkerboard patterns where all squares of the pattern are in the field of view.
+ Using this imaging system, if a checkerboard pattern with 128 128  squares is digitized, each square will be 1 1 pixel in size. 
+What is the size of the checkerboard square in the generated digital image for which spatial aliasing is observed (measured in pixels of the imaging system)?</t>
+  </si>
+  <si>
+    <t>A remote sensing image is acquired from an IRS series satellite. Initially a two dimensional filter with transfer function 𝐻(𝑢,𝑣)=exp (−𝐷2(𝑢,𝑣) 2𝐷0 2 ) is applied to reduce scan line effects. Here 𝐷(𝑢,𝑣) is the distance from center of the frequency rectangle, and 𝐷0 is the cutoff frequency. 
+Which one of the following will be the transfer function for the corresponding filter to detect the edges in the image?</t>
+  </si>
+  <si>
+    <t>1 - \exp\left( \frac{-D^{2}(u,v)}{2D_{0}^{2}} \right)</t>
+  </si>
+  <si>
+    <t>\exp\left( \frac{-D^{2}(u,v)}{2D_{0}^{2}} \right)</t>
+  </si>
+  <si>
+    <t>1 + \exp\left( \frac{-D^{2}(u,v)}{2D_{0}^{2}} \right)</t>
+  </si>
+  <si>
+    <t>1 - \exp\left( \frac{D^{2}(u,v)}{2D_{0}^{2}} \right)</t>
+  </si>
+  <si>
+    <t>Figure below shows the scatterplot of training pixels of water (w), sand (s), forest (f) and commercial (c) in bands 1 and 2. 
+Pixel ‘A’ having digital number 4 and 6 in band 1 and band 2, respectively, is to be classified using k-nearest neighbor classifier having the value of k equal to 5. 
+The assigned class for the pixel ‘A’ is _____.</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>https://ibb.co/F4MJpGBw</t>
+  </si>
+  <si>
+    <t>The figure below shows a one-dimensional function, 𝑓, and a filter 𝑤. Consider 𝑓 is padded with zeros on both sides. 
+Which one among the following will be the final convolution output of 𝑓 with 𝑤 after the padding zeros are removed from the output?</t>
+  </si>
+  <si>
+    <t>https://ibb.co/SDNXDwgk</t>
+  </si>
+  <si>
+    <t>https://ibb.co/Gz1ppZj</t>
+  </si>
+  <si>
+    <t>https://ibb.co/chGd9wG0</t>
+  </si>
+  <si>
+    <t>https://ibb.co/rGdD4rwJ</t>
+  </si>
+  <si>
+    <t>https://ibb.co/DfgJ2m7D</t>
+  </si>
+  <si>
+    <t>In supervised digital image classification, the number of combinations to be evaluated to select three 
+best bands out of five bands is___________ (Answer in integer).</t>
+  </si>
+  <si>
+    <t>A CCD array element in a remote sensing sensor measures incoming radiation and its output voltage varies linearly between 0 V to 5 V. 
+This voltage is converted to an 8-bit digital image using an analogue to digital convertor (ADC). 
+The ADC has a linear response without bias or noise. If the output image pixel has a digital number of 100, the input voltage to the ADC would be _____ V (rounded off to 2 decimal places).</t>
+  </si>
+  <si>
+    <t>Piecewise linear contrast stretch is performed on an 8-bit image. The output (𝐵𝑉𝑜𝑢𝑡) would be zero 
+for input value 𝐵𝑉𝑖𝑛≤80. The output (𝐵𝑉𝑜𝑢𝑡) would be 255 for � �𝑉𝑖𝑛&gt;120. For the remaining input values, 
+𝐵𝑉𝑜𝑢𝑡=(2×𝐵𝑉𝑖𝑛)−20. If 𝐵𝑉𝑖𝑛=120, then 𝐵𝑉𝑜𝑢𝑡 is _____ (Answer in integer).</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis is performed on a 4-band IRS satellite image. 
+The eigen values (𝐸=[𝜆1,1,𝜆2,2,𝜆3,3,𝜆4,4]) computed from the covariance matrix are 887.60,75.20,37.60 and 6.73, respectively. 
+The percentage of total variance explained by the third principal component (𝜆3,3) is ________ (rounded off to 2 decimal places).</t>
+  </si>
+  <si>
+    <t>A remote sensing instrument measures only in Green, Red and Near-Infrared frequency bands. 
+The remote sensing index/indices that CANNOT be derived using data of this instrument is/are______.</t>
+  </si>
+  <si>
+    <t>Normalized Difference Vegetation Index</t>
+  </si>
+  <si>
+    <t>Atmospherically Resistant Vegetation Index</t>
+  </si>
+  <si>
+    <t>Soil Adjusted Vegetation Index</t>
+  </si>
+  <si>
+    <t>Enhanced Vegetation Index</t>
+  </si>
+  <si>
+    <t>Which one of the following techniques is NOT used to atmospherically correct the satellite image?</t>
+  </si>
+  <si>
+    <t>Image normalization using histogram adjustment</t>
+  </si>
+  <si>
+    <t>Radiative transfer model</t>
+  </si>
+  <si>
+    <t>Image to image registration</t>
+  </si>
+  <si>
+    <t>Image normalization using regression</t>
+  </si>
+  <si>
+    <t>Which one of the following is NOT used to assess the quality of remote sensing image?</t>
+  </si>
+  <si>
+    <t>Univariate statistics of image</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Multivariate statistics of image</t>
+  </si>
+  <si>
+    <t>Swath of the image</t>
+  </si>
+  <si>
+    <t>Which one of the following image processing methods employs standard deviation?</t>
+  </si>
+  <si>
+    <t>Band ratio</t>
+  </si>
+  <si>
+    <t>Parallelepiped classification</t>
+  </si>
+  <si>
+    <t>Correction of skew distortion in raw satellite image</t>
+  </si>
+  <si>
+    <t>Nearest neighbor classification</t>
+  </si>
+  <si>
+    <t>MCQ</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>MSQ</t>
+  </si>
+  <si>
+    <t>In case of normalized difference vegetation index (NDVI), which of the following statements is/are correct?</t>
+  </si>
+  <si>
+    <t>Question Mark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -519,7 +770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -527,17 +778,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -1481,4 +1757,507 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA1037C-803F-47C6-8BF3-E98000C2F254}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="85.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1066</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1067</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1068</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1069</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1070</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1071</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1072</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1073</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1074</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1075</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1076</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1077</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1078</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1079</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1080</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1081</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1082</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>1083</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1084</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>